--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_100_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_100_no_assign.xlsx
@@ -47,30 +47,39 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
     <t>Total time online (min)</t>
   </si>
   <si>
-    <t>Days with no interaction</t>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
   </si>
   <si>
     <t>Clicks on campus</t>
   </si>
   <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Clicks (% of course total)</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
+    <t>Largest period of inactivity (h)</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Resources viewed</t>
   </si>
   <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Largest period of inactivity (h)</t>
-  </si>
-  <si>
     <t>Average session duration (min)</t>
   </si>
   <si>
@@ -80,76 +89,67 @@
     <t>Clicks per session</t>
   </si>
   <si>
-    <t>Number of days</t>
-  </si>
-  <si>
     <t>On/off campus click ratio</t>
   </si>
   <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Resources viewed</t>
-  </si>
-  <si>
     <t>Assignments submitted</t>
   </si>
   <si>
     <t>Number of clicks</t>
   </si>
   <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -565,16 +565,16 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -585,10 +585,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -597,13 +597,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>6</v>
@@ -710,7 +710,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -815,10 +815,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -905,13 +905,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -972,13 +972,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1094,10 +1094,10 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1129,16 +1129,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1225,13 +1225,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1254,13 +1254,13 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1318,13 +1318,13 @@
         <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2032,16 +2032,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2128,19 +2128,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -2155,12 +2155,12 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2201,13 +2201,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -2224,16 +2224,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -2256,19 +2256,19 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -2288,16 +2288,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -2347,24 +2347,24 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2379,12 +2379,12 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2393,13 +2393,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -2416,13 +2416,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2603,12 +2603,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_100_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_100_no_assign.xlsx
@@ -47,19 +47,22 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
     <t>Days with no interaction</t>
   </si>
   <si>
-    <t>Total time online (min)</t>
-  </si>
-  <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Clicks (% of course total)</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
+    <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Clicks on campus</t>
@@ -68,88 +71,85 @@
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Resources viewed</t>
+  </si>
+  <si>
     <t>Number of days</t>
   </si>
   <si>
+    <t>On/off campus click ratio</t>
+  </si>
+  <si>
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Resources viewed</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
     <t>Clicks per session</t>
   </si>
   <si>
-    <t>On/off campus click ratio</t>
-  </si>
-  <si>
     <t>Assignments submitted</t>
   </si>
   <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Clicks on course</t>
+  </si>
+  <si>
     <t>Number of clicks</t>
   </si>
   <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
     <t>Number of sessions</t>
   </si>
   <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
     <t>Discussions viewed</t>
   </si>
   <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
     <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Files downloaded</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
     <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -565,16 +565,16 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -585,10 +585,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -597,13 +597,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>6</v>
@@ -710,13 +710,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -742,13 +742,13 @@
         <v>16</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -815,10 +815,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -905,13 +905,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -972,13 +972,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1001,13 +1001,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -1030,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -1094,10 +1094,10 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1135,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1161,16 +1161,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1222,16 +1222,16 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1254,10 +1254,10 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1318,13 +1318,13 @@
         <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>35</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1712,13 +1712,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1739,12 +1739,12 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1779,13 +1779,13 @@
         <v>16</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1803,21 +1803,21 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2096,19 +2096,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -2123,18 +2123,18 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2155,12 +2155,12 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2172,10 +2172,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -2192,22 +2192,22 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2283,24 +2283,24 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         <v>43</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2347,24 +2347,24 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -2379,12 +2379,12 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2393,13 +2393,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -2416,16 +2416,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2448,10 +2448,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2553,13 +2553,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_100_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_100_no_assign.xlsx
@@ -47,6 +47,9 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
     <t>Total time online (min)</t>
   </si>
   <si>
@@ -56,100 +59,97 @@
     <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Clicks (% of course total)</t>
-  </si>
-  <si>
     <t>Days with no interaction</t>
   </si>
   <si>
+    <t>Clicks on campus</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Largest period of inactivity (h)</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>On/off campus click ratio</t>
+  </si>
+  <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Resources viewed</t>
+  </si>
+  <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Clicks on campus</t>
-  </si>
-  <si>
-    <t>Largest period of inactivity (h)</t>
-  </si>
-  <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Resources viewed</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>On/off campus click ratio</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
     <t>Clicks per session</t>
   </si>
   <si>
+    <t>Clicks on course</t>
+  </si>
+  <si>
     <t>Assignments submitted</t>
   </si>
   <si>
+    <t>Number of clicks</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
   </si>
   <si>
     <t>Number of sessions</t>
   </si>
   <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Files downloaded</t>
+  </si>
+  <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
     <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -565,16 +565,16 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -582,13 +582,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -597,13 +597,13 @@
         <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>6</v>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -742,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -751,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -908,13 +908,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -972,13 +972,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1033,13 +1033,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -1094,16 +1094,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1129,16 +1129,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1222,13 +1222,13 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1289,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1321,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1712,16 +1712,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1744,16 +1744,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1776,16 +1776,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1803,21 +1803,21 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2192,16 +2192,16 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -2224,19 +2224,19 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2288,22 +2288,22 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -2320,13 +2320,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2448,16 +2448,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2544,16 +2544,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
